--- a/OldWorldBeasts/data.xlsx
+++ b/OldWorldBeasts/data.xlsx
@@ -1,8 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
@@ -10,35 +9,337 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+  <si>
+    <t>Banshees</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Concealment +20%, Perception +20%, Speak Language (Any One)</t>
+  </si>
+  <si>
+    <t>Ethereal, Frightening, Night Vision, Undead</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Handweapon</t>
+  </si>
+  <si>
+    <t>Ghostly Howl: Once Per Round, As A Half Action, A 
+Banshee May Emit A Terrifying Howl Of Pure Evil 
+Against A Single Opponent Who Is Within 16 Yards (8 
+Squares). She And Her Opponent Make Opposed Will 
+Power Tests. If The Opponent Wins, He Is Unaffected. 
+If The Banshee Wins, She Inflicts 1D10 Wounds On 
+Her Victim, Ignoring Toughness Bonus And Armour. 
+Those Killed By A Banshee’S Wail Appear To Have Been 
+Frightened To Death. Creatures Immune To Fear And Terror Tests Are Also Immune To The Ghostly Howl. 
+A Character Who Is Injured By A Banshee’S Howl, 
+But Lives To Tell The Tale, Must Make A Will Power 
+Test At The End Of The Encounter Or Gain 1 Insanity 
+Point. Many Survivors Convince Themselves That They 
+Are Doomed To Die, And Are Unable To Shake Off The 
+Feeling.</t>
+  </si>
+  <si>
+    <t>Beastmen, Bestigors</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Command, concealment, dodge blow, follow trail, 
+intimidate +10%, outdoor survival, perception, 
+shadowing, silent move, speak language (dark 
+tongue)</t>
+  </si>
+  <si>
+    <t>Keen senses, menacing, rover, specialist weapon 
+group (two-handed), strike mighty blow</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Great Weapon, Hand Weapon, Horns (Sb Dmg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos Mutations: Animalistic Legs, Bestial 
+Appearance, And Large Horns. There Is A 50%
+Chance Of An Additional Mutation. Roll On 
+Table2-1: Expanded Chaos Mutations To Generate 
+The Extra Mutation If Present And Modify Stats As 
+Appropriate.
+Silent As The Beasts Of The Woods: Beastmen Are 
+Naturally Stealthy, And Most Are Also Very 
+Experienced Hunters And Trackers. They Gain +20% 
+To Silent Move Tests And +10% To Concealment Tests.
+</t>
+  </si>
+  <si>
+    <t>Beastmen, Centigors</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Consume Alcohol, Follow Trail +10%, Intimidate, Outdoor Survival, Perception, Shadowing, Speak Language (Dark Tongue)</t>
+  </si>
+  <si>
+    <t>Keen Senses, Menacing, Natural Weapons, Specialist Weapon Group (Cavalry, Throwing)</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Demilance Or Hand Weapon, Shield Or 2 Thowing Axes, Hooves, Horns (Sb-1 Dmg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armoured Torso: Centigors Wear Armour On Their Torsos But Not Their Lower Halves. If Using The Advanced Armour System, 50% Of All Hits To The Body Ignore Any Armour Worn On That Location. Centigors Cannot Wear Armour On Their Legs. 
+chaos Mutations: Animalistic Legs, Bestial Appearance, And Large Horns. There Is A 50% Chance Of An Additional Mutation. Roll On Table2-1: Expanded Chaos Mutations To Generate The Extra Mutation If Present And Modify Stats As Appropriate.
+</t>
+  </si>
+  <si>
+    <t>Beastmen, Gors</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Concealment, Follow Trail, Intimidate, Outdoor
+Survival, Perception, Shadowing, Silent Move, Speak
+Language (Dark Tongue)</t>
+  </si>
+  <si>
+    <t>Keen Senses, Menacing, Rover</t>
+  </si>
+  <si>
+    <t>Hand Weapon Or Spear, Hand Weapon Or Shield, Horns (Sb-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos Mutations: Animalistic Legs, Bestial Appearance, And Large Horns. There Is A 50% Chance Of An Additional Mutation. Roll On Table2-1: Expanded Chaos Mutations To Generate The Extra Mutation If Present And Modify Stats As Appropriate. 
+Silent As The Beasts Of The Woods: Beastmen Are Naturally Stealthy, And Most Are Also Very Experienced Hunters And Trackers. They Gain +20% To Silent Move Tests And +10% To Concealment Tests
+</t>
+  </si>
+  <si>
+    <t>Beastmen, Ungors And Brays</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Concealment, follow trail, outdoor survival,
+perception, shadowing, silent move, speak language
+(dark tongue)</t>
+  </si>
+  <si>
+    <t>Keen senses, rover</t>
+  </si>
+  <si>
+    <t>Hand Weapon Or Shield, Spear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaos Mutations: Animalistic Legs, Bestial Appearance, And Large Horns. There Is A 25% Chance Of An Additional Mutation. Roll On Table2-1: Expanded Chaos Mutations To Generate The Extra Mutation If Present And Modify Stats As Appropriate. 
+Silent As The Beasts Of The Woods: Beastmen Are Naturally Stealthy, And Most Are Also Very Experienced Hunters And Trackers. They Gain +20% To Silent Move Tests And +10% To Concealment Tests
+</t>
+  </si>
+  <si>
+    <t>Chaos Dwarfs</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Common Knowledge (Dwarfs), Drive, Haggle,
+Perception, Search, Speak Language (Khazalid), Speak
+Language (Reikspiel), Trade (Gunsmith)</t>
+  </si>
+  <si>
+    <t>Disarm, Dwarfcraft, Master Gunner, Night Vision,
+Specialist Weapon Group (Gunpowder), Stouthearted,
+Strike To Stun, Sturdy</t>
+  </si>
+  <si>
+    <t>Blunderbuss Or Shield, Hand Weapon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorcery: Unlike Normal Dwarfs, Chaos Dwarfs Can
+Become Wizards 
+Chaos Mutation: There Is A 25% Chance A Chaos
+Dwarf Has A Single Chaos Mutation. Roll On Table
+2-1: Expanded Chaos Mutations To Generate It If
+Present And Modify Stats As Appropriate.
+</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
+      <charset val="0"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color indexed="12"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color rgb="FF2B579A"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF2B579A"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill>
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,15 +347,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF2B579A"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF2B579A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="4">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="4">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="ConditionalFormatStyle" xfId="1"/>
+    <cellStyle name="HeaderStyle" xfId="2"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="3"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -349,14 +669,395 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="A1" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row customHeight="1" ht="151.5" r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <headerFooter alignWithMargins="0" differentFirst="0" differentOddEven="0" scaleWithDoc="1">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>